--- a/resource/QDC01D+EB_Modbus规约_20250512.xlsx
+++ b/resource/QDC01D+EB_Modbus规约_20250512.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12400"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="108">
   <si>
     <t>1、波特率:115200bps</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3、采用主从方式，串口屏作为主站，</t>
     </r>
     <r>
@@ -491,12 +497,21 @@
 0：低液位 1：高液位</t>
   </si>
   <si>
+    <t>废墨</t>
+  </si>
+  <si>
+    <t>[8:15]</t>
+  </si>
+  <si>
+    <t>[1:7]</t>
+  </si>
+  <si>
+    <t>废墨状态</t>
+  </si>
+  <si>
     <t>温湿度</t>
   </si>
   <si>
-    <t>[8:15]</t>
-  </si>
-  <si>
     <t>湿度</t>
   </si>
   <si>
@@ -518,50 +533,33 @@
     <t>NTC1</t>
   </si>
   <si>
+    <t>热电堆温度</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
     <t>输出寄存器</t>
   </si>
   <si>
-    <t>循环控制</t>
+    <t>胶辊加热</t>
+  </si>
+  <si>
+    <t>停止温度</t>
   </si>
   <si>
     <t>06/16</t>
   </si>
   <si>
-    <t>[9:14]</t>
-  </si>
-  <si>
-    <t>停止时间</t>
-  </si>
-  <si>
-    <t>0~60s</t>
-  </si>
-  <si>
-    <t>[3:8]</t>
-  </si>
-  <si>
-    <t>启动时间</t>
-  </si>
-  <si>
-    <t>[0:2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">档位
-     </t>
-  </si>
-  <si>
-    <t>0~6档</t>
-  </si>
-  <si>
-    <t>搅拌控制</t>
-  </si>
-  <si>
-    <t>墨囊加热</t>
-  </si>
-  <si>
-    <t>[1:7]</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>开关</t>
     </r>
     <r>
@@ -575,6 +573,56 @@
       <t>：
 0：关闭  1：开启</t>
     </r>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>风扇</t>
+  </si>
+  <si>
+    <t>[9:14]</t>
+  </si>
+  <si>
+    <t>0~6档</t>
+  </si>
+  <si>
+    <t>[3:8]</t>
+  </si>
+  <si>
+    <t>[0:2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">档位
+     </t>
+  </si>
+  <si>
+    <t>底板加热</t>
+  </si>
+  <si>
+    <t>墨囊加热</t>
+  </si>
+  <si>
+    <t>循环控制</t>
+  </si>
+  <si>
+    <t>0~60s</t>
+  </si>
+  <si>
+    <t>停止时间（s）</t>
+  </si>
+  <si>
+    <t>启动时间（s）</t>
+  </si>
+  <si>
+    <t>搅拌控制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺墨延时时间
+</t>
+  </si>
+  <si>
+    <t>时间（s）</t>
   </si>
 </sst>
 </file>
@@ -1361,6 +1409,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1431,19 +1492,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1726,7 +1774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1877,9 +1925,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1889,11 +1934,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1901,13 +1964,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,13 +1979,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,10 +1997,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,7 +2018,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1976,22 +2039,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2540,10 +2606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2557,7 +2623,9 @@
     <col min="8" max="9" width="8.72727272727273" style="2"/>
     <col min="10" max="10" width="9.34545454545455" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.6363636363636" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.72727272727273" style="2"/>
+    <col min="12" max="12" width="8.72727272727273" style="2"/>
+    <col min="13" max="13" width="11.8181818181818" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
@@ -2622,7 +2690,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="56"/>
+      <c r="N5" s="61"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A6" s="14" t="s">
@@ -2640,7 +2708,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="57"/>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A7" s="15" t="s">
@@ -2654,7 +2722,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="42"/>
-      <c r="J7" s="58"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A8" s="16" t="s">
@@ -2668,7 +2736,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="59"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A9" s="19" t="s">
@@ -2696,25 +2764,25 @@
         <v>14</v>
       </c>
       <c r="I9" s="32"/>
-      <c r="J9" s="59"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="95" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2724,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="32"/>
-      <c r="J10" s="59"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A11" s="24" t="s">
@@ -2738,7 +2806,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="60"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A12" s="26" t="s">
@@ -2768,16 +2836,16 @@
       <c r="I12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="96" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="19">
@@ -2798,7 +2866,7 @@
       <c r="I13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="61"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A14" s="29"/>
@@ -2810,7 +2878,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="62"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A15" s="14" t="s">
@@ -2828,7 +2896,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="57"/>
+      <c r="N15" s="62"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A16" s="15" t="s">
@@ -2841,8 +2909,8 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="62"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A17" s="16" t="s">
@@ -2855,8 +2923,8 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="62"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A18" s="19" t="s">
@@ -2883,26 +2951,26 @@
       <c r="H18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="62"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="95" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="22" t="s">
@@ -2911,8 +2979,8 @@
       <c r="H19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A20" s="32" t="s">
@@ -2925,8 +2993,8 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="62"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A21" s="26" t="s">
@@ -2951,17 +3019,17 @@
         <v>14</v>
       </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="62"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="96" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="19">
@@ -2977,8 +3045,8 @@
         <v>19</v>
       </c>
       <c r="H22" s="35"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="62"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A23" s="12"/>
@@ -2990,7 +3058,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="62"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A24" s="14" t="s">
@@ -3008,7 +3076,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="57"/>
+      <c r="N24" s="62"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A25" s="15" t="s">
@@ -3021,8 +3089,8 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="62"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A26" s="36" t="s">
@@ -3035,8 +3103,8 @@
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="62"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A27" s="32" t="s">
@@ -3063,20 +3131,20 @@
       <c r="H27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="66"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="71"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="97" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="32" t="s">
@@ -3092,7 +3160,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="42"/>
-      <c r="J28" s="66"/>
+      <c r="J28" s="71"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A29" s="39" t="s">
@@ -3106,7 +3174,7 @@
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="62"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A30" s="32" t="s">
@@ -3134,19 +3202,19 @@
         <v>14</v>
       </c>
       <c r="I30" s="44"/>
-      <c r="J30" s="62"/>
+      <c r="J30" s="67"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A31" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="98" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="40" t="s">
@@ -3161,8 +3229,8 @@
       <c r="H31" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="65"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="67"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A32" s="12"/>
@@ -3174,7 +3242,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="67"/>
+      <c r="J32" s="72"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A33" s="14" t="s">
@@ -3192,7 +3260,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="57"/>
+      <c r="N33" s="62"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A34" s="41" t="s">
@@ -3206,7 +3274,7 @@
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
-      <c r="J34" s="67"/>
+      <c r="J34" s="72"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A35" s="39" t="s">
@@ -3223,8 +3291,8 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="69"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="74"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A36" s="42" t="s">
@@ -3263,10 +3331,10 @@
       <c r="L36" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="70" t="s">
+      <c r="M36" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="71"/>
+      <c r="N36" s="76"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A37" s="21" t="s">
@@ -3275,40 +3343,40 @@
       <c r="B37" s="44">
         <v>10</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="93" t="s">
+      <c r="G37" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="93" t="s">
+      <c r="H37" s="99" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="93" t="s">
+      <c r="J37" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="93" t="s">
+      <c r="K37" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="72" t="s">
+      <c r="L37" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="73" t="s">
+      <c r="M37" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="71"/>
+      <c r="N37" s="76"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A38" s="39" t="s">
@@ -3325,8 +3393,8 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="74"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="79"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A39" s="42" t="s">
@@ -3353,8 +3421,8 @@
       <c r="H39" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="67"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A40" s="21" t="s">
@@ -3363,16 +3431,16 @@
       <c r="B40" s="40">
         <v>10</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="92" t="s">
+      <c r="E40" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="92" t="s">
+      <c r="F40" s="98" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="40" t="s">
@@ -3381,8 +3449,8 @@
       <c r="H40" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="65"/>
-      <c r="J40" s="67"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="72"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A41" s="12"/>
@@ -3394,7 +3462,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="72"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="15" spans="1:11">
       <c r="A43" s="45" t="s">
@@ -3419,11 +3487,11 @@
       <c r="H43" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="75" t="s">
+      <c r="I43" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="76"/>
-      <c r="K43" s="77" t="s">
+      <c r="J43" s="81"/>
+      <c r="K43" s="82" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3447,524 +3515,503 @@
         <v>57</v>
       </c>
       <c r="G44" s="49"/>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="94" t="s">
+      <c r="I44" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="79"/>
-      <c r="K44" s="80"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="85"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="47"/>
-      <c r="D45" s="52"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="47">
         <v>13</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="80"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="85"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="47"/>
-      <c r="D46" s="52"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="47">
         <v>12</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="80"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="85"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="47"/>
-      <c r="D47" s="52"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="47">
         <v>11</v>
       </c>
-      <c r="F47" s="53" t="s">
+      <c r="F47" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="80"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="85"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="47"/>
-      <c r="D48" s="52"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="47">
         <v>10</v>
       </c>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="80"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="85"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="47"/>
-      <c r="D49" s="52"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="47">
         <v>9</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="80"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="85"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="47"/>
-      <c r="D50" s="52"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="47">
         <v>8</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="80"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="85"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="47"/>
-      <c r="D51" s="52"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="47">
         <v>7</v>
       </c>
-      <c r="F51" s="53" t="s">
+      <c r="F51" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="80"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="85"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="47"/>
-      <c r="D52" s="52"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="47">
         <v>6</v>
       </c>
-      <c r="F52" s="53" t="s">
+      <c r="F52" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="80"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="85"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="47"/>
-      <c r="D53" s="52"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="47">
         <v>5</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="53"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="80"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="85"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="47"/>
-      <c r="D54" s="52"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="47">
         <v>4</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="80"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="85"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="47"/>
-      <c r="D55" s="52"/>
+      <c r="D55" s="51"/>
       <c r="E55" s="47">
         <v>3</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="G55" s="53"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="80"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="85"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="47"/>
-      <c r="D56" s="52"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="47">
         <v>2</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="53"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="80"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="85"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="47"/>
-      <c r="D57" s="52"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="47">
         <v>1</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="F57" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="53"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="80"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="86"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="85"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="47"/>
-      <c r="D58" s="55"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="47">
         <v>0</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="80"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="85"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:11">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="47">
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="53">
         <v>30002</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="54" t="s">
         <v>73</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="F59" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="88"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:11">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="53"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="85" t="s">
+      <c r="F60" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="89"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:11">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="47">
+        <v>0</v>
+      </c>
+      <c r="F61" s="55" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:11">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="47" t="s">
+      <c r="G61" s="56"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="90"/>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:11">
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="57">
+        <v>30003</v>
+      </c>
+      <c r="D62" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="E62" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="86" t="s">
+      <c r="G62" s="52"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="90" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:11">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="47">
-        <v>30002</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="47" t="s">
+    <row r="63" s="2" customFormat="1" spans="1:11">
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="52"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:11">
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="57">
+        <v>30004</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F64" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="52"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="87"/>
+      <c r="K64" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:11">
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="53"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" spans="1:11">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="53"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="55"/>
-    </row>
-    <row r="63" s="2" customFormat="1" spans="1:11">
-      <c r="A63" s="47" t="s">
+      <c r="F65" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="94"/>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:11">
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="57">
+        <v>30005</v>
+      </c>
+      <c r="D66" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="94"/>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="1:11">
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="52"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="87"/>
+      <c r="K67" s="50"/>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="1:11">
+      <c r="A68" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="53">
+        <v>4</v>
+      </c>
+      <c r="C68" s="53">
+        <v>40001</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="49"/>
+      <c r="H68" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="K68" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="47">
-        <v>4</v>
-      </c>
-      <c r="C63" s="47">
-        <v>40001</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="47">
-        <v>15</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="I63" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="K63" s="87"/>
-    </row>
-    <row r="64" s="2" customFormat="1" spans="1:11">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" spans="1:11">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:14">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-    </row>
-    <row r="67" s="2" customFormat="1" spans="1:14">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47">
-        <v>40002</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="47">
-        <v>15</v>
-      </c>
-      <c r="F67" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="87"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" s="2" customFormat="1" spans="1:14">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
-    <row r="69" s="2" customFormat="1" spans="1:14">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="1:11">
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="47"/>
       <c r="E69" s="47" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F69" s="49" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G69" s="49"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-    </row>
-    <row r="70" s="2" customFormat="1" spans="1:14">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="92"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="31" customHeight="1" spans="1:11">
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="47"/>
-      <c r="E70" s="47" t="s">
-        <v>90</v>
+      <c r="E70" s="47">
+        <v>0</v>
       </c>
       <c r="F70" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="87" t="s">
+      <c r="G70" s="52"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="59"/>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:12">
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53">
+        <v>40002</v>
+      </c>
+      <c r="D71" s="53" t="s">
         <v>92</v>
-      </c>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="71" s="2" customFormat="1" spans="1:14">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47">
-        <v>40003</v>
-      </c>
-      <c r="D71" s="47" t="s">
-        <v>94</v>
       </c>
       <c r="E71" s="47" t="s">
         <v>74</v>
@@ -3973,56 +4020,413 @@
         <v>57</v>
       </c>
       <c r="G71" s="49"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="88"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="57"/>
       <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-    </row>
-    <row r="72" s="2" customFormat="1" spans="1:14">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:12">
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="47" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F72" s="49" t="s">
         <v>57</v>
       </c>
       <c r="G72" s="49"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="88"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="92"/>
       <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="32" customHeight="1" spans="1:14">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="32" customHeight="1" spans="1:12">
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
       <c r="E73" s="47">
         <v>0</v>
       </c>
       <c r="F73" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="52"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="59"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:12">
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53">
+        <v>40003</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="49"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="L74"/>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:12">
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="53"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="88"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
+      <c r="F75" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="49"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="92"/>
+      <c r="L75"/>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:12">
+      <c r="A76" s="53"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="49"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="92"/>
+      <c r="L76"/>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:12">
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53">
+        <v>40004</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="49"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="L77"/>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:12">
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="49"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="92"/>
+      <c r="L78"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="32" customHeight="1" spans="1:12">
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47">
+        <v>0</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="52"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="59"/>
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="47">
+        <v>40005</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="49"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="57"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" s="49"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="92"/>
+    </row>
+    <row r="82" ht="29" customHeight="1" spans="1:11">
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47">
+        <v>0</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="52"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="59"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="47">
+        <v>40006</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="47">
+        <v>15</v>
+      </c>
+      <c r="F83" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="49"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" s="49"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="53"/>
+      <c r="K84" s="92"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="49"/>
+      <c r="H85" s="53"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="53"/>
+      <c r="K85" s="92"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="49"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="59"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="47">
+        <v>40007</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="47">
+        <v>15</v>
+      </c>
+      <c r="F87" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="49"/>
+      <c r="H87" s="53"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="49"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="92"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="53"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" s="49"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="92"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" s="49"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="59"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="47">
+        <v>40008</v>
+      </c>
+      <c r="D91" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="49"/>
+      <c r="H91" s="53"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="53"/>
+      <c r="K91" s="57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="53"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" s="49"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="53"/>
+      <c r="K92" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="128">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -4079,38 +4483,78 @@
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
-    <mergeCell ref="A44:A62"/>
-    <mergeCell ref="A63:A73"/>
-    <mergeCell ref="B44:B62"/>
-    <mergeCell ref="B63:B73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A44:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="B44:B67"/>
+    <mergeCell ref="B68:B92"/>
     <mergeCell ref="C44:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C92"/>
     <mergeCell ref="D44:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
-    <mergeCell ref="H44:H62"/>
-    <mergeCell ref="H63:H73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="H44:H67"/>
+    <mergeCell ref="H68:H92"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I63:I73"/>
+    <mergeCell ref="I68:I92"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J63:J73"/>
+    <mergeCell ref="J68:J92"/>
     <mergeCell ref="K44:K58"/>
-    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="K68:K70"/>
     <mergeCell ref="K71:K73"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="K83:K86"/>
+    <mergeCell ref="K87:K90"/>
+    <mergeCell ref="K91:K92"/>
     <mergeCell ref="N35:N38"/>
     <mergeCell ref="I7:J10"/>
-    <mergeCell ref="I44:J62"/>
+    <mergeCell ref="I44:J67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/resource/QDC01D+EB_Modbus规约_20250512.xlsx
+++ b/resource/QDC01D+EB_Modbus规约_20250512.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="27950" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
     <t>输入寄存器</t>
   </si>
   <si>
-    <t>1~14通道
+    <t>1~7通道
 液位信息</t>
   </si>
   <si>
@@ -441,60 +441,67 @@
     <t>R</t>
   </si>
   <si>
-    <t>通道14液位信息：
-0：低液位 1：高液位</t>
-  </si>
-  <si>
-    <t>通道13液位信息：
-0：低液位 1：高液位</t>
-  </si>
-  <si>
-    <t>通道12液位信息：
-0：低液位 1：高液位</t>
-  </si>
-  <si>
-    <t>通道11液位信息：
-0：低液位 1：高液位</t>
-  </si>
-  <si>
-    <t>通道10液位信息：
-0：低液位 1：高液位</t>
-  </si>
-  <si>
-    <t>通道9液位信息：
-0：低液位 1：高液位</t>
-  </si>
-  <si>
-    <t>通道8液位信息：
-0：低液位 1：高液位</t>
+    <t>[12:13]</t>
   </si>
   <si>
     <t>通道7液位信息：
-0：低液位 1：高液位</t>
+1：低液位 
+2：中液位
+3：高液位</t>
+  </si>
+  <si>
+    <t>[10:11]</t>
   </si>
   <si>
     <t>通道6液位信息：
-0：低液位 1：高液位</t>
+1：低液位 
+2：中液位
+3：高液位</t>
+  </si>
+  <si>
+    <t>[8:9]</t>
   </si>
   <si>
     <t>通道5液位信息：
-0：低液位 1：高液位</t>
+1：低液位 
+2：中液位
+3：高液位</t>
+  </si>
+  <si>
+    <t>[6:7]</t>
   </si>
   <si>
     <t>通道4液位信息：
-0：低液位 1：高液位</t>
+1：低液位 
+2：中液位
+3：高液位</t>
+  </si>
+  <si>
+    <t>[4:5]</t>
   </si>
   <si>
     <t>通道3液位信息：
-0：低液位 1：高液位</t>
+1：低液位 
+2：中液位
+3：高液位</t>
+  </si>
+  <si>
+    <t>[2:3]</t>
   </si>
   <si>
     <t>通道2液位信息：
-0：低液位 1：高液位</t>
+1：低液位 
+2：中液位
+3：高液位</t>
+  </si>
+  <si>
+    <t>[0:1]</t>
   </si>
   <si>
     <t>通道1液位信息：
-0：低液位 1：高液位</t>
+1：低液位 
+2：中液位
+3：高液位</t>
   </si>
   <si>
     <t>废墨</t>
@@ -1774,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,9 +1942,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,12 +1950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,21 +2042,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2606,10 +2589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:D70"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2690,7 +2673,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
-      <c r="N5" s="61"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A6" s="14" t="s">
@@ -2708,7 +2691,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="62"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A7" s="15" t="s">
@@ -2722,7 +2705,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="42"/>
-      <c r="J7" s="63"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A8" s="16" t="s">
@@ -2736,7 +2719,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="64"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A9" s="19" t="s">
@@ -2764,25 +2747,25 @@
         <v>14</v>
       </c>
       <c r="I9" s="32"/>
-      <c r="J9" s="64"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="87" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2792,7 +2775,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="32"/>
-      <c r="J10" s="64"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A11" s="24" t="s">
@@ -2806,7 +2789,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="65"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A12" s="26" t="s">
@@ -2836,16 +2819,16 @@
       <c r="I12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="63"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="88" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="19">
@@ -2866,7 +2849,7 @@
       <c r="I13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A14" s="29"/>
@@ -2878,7 +2861,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="67"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A15" s="14" t="s">
@@ -2896,7 +2879,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="62"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A16" s="15" t="s">
@@ -2909,8 +2892,8 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="67"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A17" s="16" t="s">
@@ -2923,8 +2906,8 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="31"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="67"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A18" s="19" t="s">
@@ -2951,26 +2934,26 @@
       <c r="H18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="68"/>
-      <c r="J18" s="67"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="87" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="22" t="s">
@@ -2979,8 +2962,8 @@
       <c r="H19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A20" s="32" t="s">
@@ -2993,8 +2976,8 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="67"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A21" s="26" t="s">
@@ -3019,17 +3002,17 @@
         <v>14</v>
       </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="67"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="88" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="19">
@@ -3045,8 +3028,8 @@
         <v>19</v>
       </c>
       <c r="H22" s="35"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A23" s="12"/>
@@ -3058,7 +3041,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="67"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A24" s="14" t="s">
@@ -3076,7 +3059,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="62"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A25" s="15" t="s">
@@ -3089,8 +3072,8 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="67"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="64"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A26" s="36" t="s">
@@ -3103,8 +3086,8 @@
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="67"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="64"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A27" s="32" t="s">
@@ -3131,20 +3114,20 @@
       <c r="H27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="71"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C28" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="89" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="32" t="s">
@@ -3160,7 +3143,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="42"/>
-      <c r="J28" s="71"/>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A29" s="39" t="s">
@@ -3174,7 +3157,7 @@
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="67"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A30" s="32" t="s">
@@ -3202,19 +3185,19 @@
         <v>14</v>
       </c>
       <c r="I30" s="44"/>
-      <c r="J30" s="67"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A31" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D31" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="40" t="s">
@@ -3229,8 +3212,8 @@
       <c r="H31" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="64"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A32" s="12"/>
@@ -3242,7 +3225,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="72"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A33" s="14" t="s">
@@ -3260,7 +3243,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="62"/>
+      <c r="N33" s="59"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A34" s="41" t="s">
@@ -3274,7 +3257,7 @@
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
-      <c r="J34" s="72"/>
+      <c r="J34" s="69"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A35" s="39" t="s">
@@ -3291,8 +3274,8 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="74"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="71"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A36" s="42" t="s">
@@ -3331,10 +3314,10 @@
       <c r="L36" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="76"/>
+      <c r="N36" s="73"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A37" s="21" t="s">
@@ -3343,40 +3326,40 @@
       <c r="B37" s="44">
         <v>10</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="99" t="s">
+      <c r="F37" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="99" t="s">
+      <c r="G37" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="99" t="s">
+      <c r="H37" s="91" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="99" t="s">
+      <c r="J37" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="99" t="s">
+      <c r="K37" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="77" t="s">
+      <c r="L37" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="78" t="s">
+      <c r="M37" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="76"/>
+      <c r="N37" s="73"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A38" s="39" t="s">
@@ -3393,8 +3376,8 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="79"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="76"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A39" s="42" t="s">
@@ -3421,8 +3404,8 @@
       <c r="H39" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="72"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="69"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A40" s="21" t="s">
@@ -3431,16 +3414,16 @@
       <c r="B40" s="40">
         <v>10</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C40" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="98" t="s">
+      <c r="F40" s="90" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="40" t="s">
@@ -3449,8 +3432,8 @@
       <c r="H40" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="72"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="69"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A41" s="12"/>
@@ -3462,7 +3445,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="72"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="15" spans="1:11">
       <c r="A43" s="45" t="s">
@@ -3487,11 +3470,11 @@
       <c r="H43" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="80" t="s">
+      <c r="I43" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="81"/>
-      <c r="K43" s="82" t="s">
+      <c r="J43" s="78"/>
+      <c r="K43" s="79" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3518,258 +3501,276 @@
       <c r="H44" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="100" t="s">
+      <c r="I44" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="84"/>
-      <c r="K44" s="85"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="J44" s="81"/>
+      <c r="K44" s="82"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
       <c r="C45" s="47"/>
       <c r="D45" s="51"/>
-      <c r="E45" s="47">
-        <v>13</v>
+      <c r="E45" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="F45" s="52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="52"/>
       <c r="H45" s="50"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="85"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I45" s="83"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="82"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A46" s="50"/>
       <c r="B46" s="50"/>
       <c r="C46" s="47"/>
       <c r="D46" s="51"/>
-      <c r="E46" s="47">
-        <v>12</v>
+      <c r="E46" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G46" s="52"/>
       <c r="H46" s="50"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="85"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I46" s="83"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="82"/>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="47"/>
       <c r="D47" s="51"/>
-      <c r="E47" s="47">
-        <v>11</v>
+      <c r="E47" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="F47" s="52" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="50"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="85"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I47" s="83"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="82"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
       <c r="C48" s="47"/>
       <c r="D48" s="51"/>
-      <c r="E48" s="47">
-        <v>10</v>
+      <c r="E48" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G48" s="52"/>
       <c r="H48" s="50"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="85"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I48" s="83"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="82"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="47"/>
       <c r="D49" s="51"/>
-      <c r="E49" s="47">
-        <v>9</v>
+      <c r="E49" s="47" t="s">
+        <v>67</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G49" s="52"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="85"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I49" s="83"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="82"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A50" s="50"/>
       <c r="B50" s="50"/>
       <c r="C50" s="47"/>
       <c r="D50" s="51"/>
-      <c r="E50" s="47">
-        <v>8</v>
+      <c r="E50" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G50" s="52"/>
       <c r="H50" s="50"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="85"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I50" s="83"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="82"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="47"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="47">
-        <v>7</v>
+      <c r="D51" s="50"/>
+      <c r="E51" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G51" s="52"/>
       <c r="H51" s="50"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="85"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I51" s="83"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="82"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:11">
       <c r="A52" s="50"/>
       <c r="B52" s="50"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="47">
-        <v>6</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="52"/>
+      <c r="C52" s="47">
+        <v>30002</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="49"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="87"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="84"/>
       <c r="K52" s="85"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+    <row r="53" s="2" customFormat="1" spans="1:11">
       <c r="A53" s="50"/>
       <c r="B53" s="50"/>
       <c r="C53" s="47"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="47">
-        <v>5</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="49"/>
       <c r="H53" s="50"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="85"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I53" s="83"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="86"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:11">
       <c r="A54" s="50"/>
       <c r="B54" s="50"/>
       <c r="C54" s="47"/>
-      <c r="D54" s="51"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="47">
-        <v>4</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="55"/>
       <c r="H54" s="50"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="85"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I54" s="83"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="86"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:11">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="47">
-        <v>3</v>
+      <c r="C55" s="46">
+        <v>30003</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="F55" s="52" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="50"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="85"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I55" s="83"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:11">
       <c r="A56" s="50"/>
       <c r="B56" s="50"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="47">
-        <v>2</v>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="F56" s="52" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G56" s="52"/>
       <c r="H56" s="50"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="85"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I56" s="83"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:11">
       <c r="A57" s="50"/>
       <c r="B57" s="50"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="47">
-        <v>1</v>
+      <c r="C57" s="46">
+        <v>30004</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="F57" s="52" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G57" s="52"/>
       <c r="H57" s="50"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="85"/>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="I57" s="83"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:11">
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="47">
-        <v>0</v>
+      <c r="C58" s="56"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G58" s="52"/>
       <c r="H58" s="50"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="85"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="50"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:11">
       <c r="A59" s="50"/>
       <c r="B59" s="50"/>
-      <c r="C59" s="53">
-        <v>30002</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>73</v>
+      <c r="C59" s="46">
+        <v>30005</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>85</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>74</v>
@@ -3779,654 +3780,517 @@
       </c>
       <c r="G59" s="49"/>
       <c r="H59" s="50"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="88"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="50"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:11">
       <c r="A60" s="50"/>
       <c r="B60" s="50"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="52"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="50"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:11">
+      <c r="A61" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="47">
+        <v>4</v>
+      </c>
+      <c r="C61" s="47">
+        <v>40001</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:11">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F62" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="89"/>
-    </row>
-    <row r="61" s="2" customFormat="1" spans="1:11">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="47">
+      <c r="G62" s="49"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="50"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="31" customHeight="1" spans="1:11">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47">
         <v>0</v>
       </c>
-      <c r="F61" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="90"/>
-    </row>
-    <row r="62" s="2" customFormat="1" spans="1:11">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="57">
-        <v>30003</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" spans="1:11">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>81</v>
+      <c r="F63" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="G63" s="52"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" spans="1:11">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="57">
-        <v>30004</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>81</v>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="56"/>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:12">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47">
+        <v>40002</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="E64" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="87"/>
-      <c r="K64" s="46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" spans="1:11">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="53"/>
+      <c r="F64" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="49"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="46"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:12">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="87"/>
-      <c r="K65" s="94"/>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:11">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="57">
-        <v>30005</v>
-      </c>
-      <c r="D66" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="49"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="50"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="32" customHeight="1" spans="1:12">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47">
+        <v>0</v>
       </c>
       <c r="F66" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="52"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="56"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="1:12">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47">
+        <v>40003</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="94"/>
-    </row>
-    <row r="67" s="2" customFormat="1" spans="1:11">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="87"/>
-      <c r="K67" s="50"/>
-    </row>
-    <row r="68" s="2" customFormat="1" spans="1:11">
-      <c r="A68" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="53">
-        <v>4</v>
-      </c>
-      <c r="C68" s="53">
-        <v>40001</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>88</v>
-      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L67"/>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="1:12">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="47" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G68" s="49"/>
-      <c r="H68" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="I68" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="K68" s="57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" s="2" customFormat="1" spans="1:11">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="50"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="1:12">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="47"/>
       <c r="E69" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="49"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="50"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="1:12">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47">
+        <v>40004</v>
+      </c>
+      <c r="D70" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="49"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="L70"/>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:12">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47" t="s">
         <v>75</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="92"/>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="31" customHeight="1" spans="1:11">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47">
-        <v>0</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="52"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="59"/>
-    </row>
-    <row r="71" s="2" customFormat="1" spans="1:12">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53">
-        <v>40002</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="F71" s="49" t="s">
         <v>57</v>
       </c>
       <c r="G71" s="49"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="57"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="50"/>
       <c r="L71"/>
     </row>
-    <row r="72" s="2" customFormat="1" spans="1:12">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="47" t="s">
+    <row r="72" s="2" customFormat="1" ht="32" customHeight="1" spans="1:12">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47">
+        <v>0</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="52"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="56"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47">
+        <v>40005</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="49"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="46"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47" t="s">
         <v>75</v>
-      </c>
-      <c r="F72" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="92"/>
-      <c r="L72"/>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="32" customHeight="1" spans="1:12">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="47">
-        <v>0</v>
-      </c>
-      <c r="F73" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="52"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="59"/>
-      <c r="L73"/>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="1:12">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53">
-        <v>40003</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>94</v>
       </c>
       <c r="F74" s="49" t="s">
         <v>57</v>
       </c>
       <c r="G74" s="49"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="L74"/>
-    </row>
-    <row r="75" s="2" customFormat="1" spans="1:12">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="47" t="s">
-        <v>96</v>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="50"/>
+    </row>
+    <row r="75" ht="29" customHeight="1" spans="1:11">
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47">
+        <v>0</v>
       </c>
       <c r="F75" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="52"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="56"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47">
+        <v>40006</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="47">
+        <v>15</v>
+      </c>
+      <c r="F76" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="92"/>
-      <c r="L75"/>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="1:12">
-      <c r="A76" s="53"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F76" s="49" t="s">
-        <v>98</v>
-      </c>
       <c r="G76" s="49"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="92"/>
-      <c r="L76"/>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:12">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53">
-        <v>40004</v>
-      </c>
-      <c r="D77" s="47" t="s">
-        <v>99</v>
-      </c>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="47" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F77" s="49" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G77" s="49"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="L77"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="1:12">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="50"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="47"/>
       <c r="E78" s="47" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F78" s="49" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G78" s="49"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="92"/>
-      <c r="L78"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="32" customHeight="1" spans="1:12">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="50"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="47"/>
-      <c r="E79" s="47">
-        <v>0</v>
+      <c r="E79" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="F79" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="52"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="59"/>
-      <c r="L79"/>
+        <v>98</v>
+      </c>
+      <c r="G79" s="49"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="56"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="47">
-        <v>40005</v>
+        <v>40007</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="47" t="s">
-        <v>74</v>
+        <v>105</v>
+      </c>
+      <c r="E80" s="47">
+        <v>15</v>
       </c>
       <c r="F80" s="49" t="s">
         <v>57</v>
       </c>
       <c r="G80" s="49"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="57"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="46" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="47"/>
       <c r="D81" s="47"/>
       <c r="E81" s="47" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F81" s="49" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="G81" s="49"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="92"/>
-    </row>
-    <row r="82" ht="29" customHeight="1" spans="1:11">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="50"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="47"/>
-      <c r="E82" s="47">
-        <v>0</v>
+      <c r="E82" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="F82" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="59"/>
+        <v>104</v>
+      </c>
+      <c r="G82" s="49"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="50"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="47">
-        <v>40006</v>
-      </c>
-      <c r="D83" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E83" s="47">
-        <v>15</v>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="F83" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="49"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="56"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47">
+        <v>40008</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="57" t="s">
+      <c r="G84" s="49"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" s="49"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="92"/>
-    </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="47"/>
       <c r="D85" s="47"/>
       <c r="E85" s="47" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F85" s="49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G85" s="49"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="92"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" s="49"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="59"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="47">
-        <v>40007</v>
-      </c>
-      <c r="D87" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87" s="47">
-        <v>15</v>
-      </c>
-      <c r="F87" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G87" s="49"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="92"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F89" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" s="49"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="92"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" s="49"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="59"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="47">
-        <v>40008</v>
-      </c>
-      <c r="D91" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G91" s="49"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="53"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" s="49"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="59"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="121">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -4495,66 +4359,59 @@
     <mergeCell ref="F83:G83"/>
     <mergeCell ref="F84:G84"/>
     <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A44:A67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="B44:B67"/>
-    <mergeCell ref="B68:B92"/>
-    <mergeCell ref="C44:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D44:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="H44:H67"/>
-    <mergeCell ref="H68:H92"/>
+    <mergeCell ref="A44:A60"/>
+    <mergeCell ref="A61:A85"/>
+    <mergeCell ref="B44:B60"/>
+    <mergeCell ref="B61:B85"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="H44:H60"/>
+    <mergeCell ref="H61:H85"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I68:I92"/>
+    <mergeCell ref="I61:I85"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J68:J92"/>
-    <mergeCell ref="K44:K58"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="K83:K86"/>
-    <mergeCell ref="K87:K90"/>
-    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="J61:J85"/>
+    <mergeCell ref="K44:K51"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="K84:K85"/>
     <mergeCell ref="N35:N38"/>
     <mergeCell ref="I7:J10"/>
-    <mergeCell ref="I44:J67"/>
+    <mergeCell ref="I44:J60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/resource/QDC01D+EB_Modbus规约_20250512.xlsx
+++ b/resource/QDC01D+EB_Modbus规约_20250512.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12400"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2591,8 +2591,8 @@
   <sheetPr/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:D60"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
